--- a/laba2.xlsx
+++ b/laba2.xlsx
@@ -454,6 +454,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -806,6 +807,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -912,6 +914,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1207,6 +1210,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>полигон</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> частот</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -6878,11 +6911,11 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.3625</cdr:x>
+      <cdr:x>0.38125</cdr:x>
       <cdr:y>0.26736</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.37083</cdr:x>
+      <cdr:x>0.38958</cdr:x>
       <cdr:y>0.86806</cdr:y>
     </cdr:to>
     <cdr:cxnSp macro="">
@@ -6892,7 +6925,7 @@
       </cdr:nvCxnSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1657350" y="733425"/>
+          <a:off x="1743075" y="733425"/>
           <a:ext cx="38100" cy="1647825"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
@@ -7768,7 +7801,7 @@
   <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:G14"/>
+      <selection activeCell="W12" sqref="W12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
